--- a/04-27-25 to 05-03-25 Madison Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Madison Schedule.xlsx
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1332,13 +1332,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1570,21 +1569,9 @@
       <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>

--- a/04-27-25 to 05-03-25 Madison Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Madison Schedule.xlsx
@@ -970,7 +970,11 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -1024,22 +1028,9 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
@@ -1082,18 +1073,18 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Driver,
-Silver Van</t>
+          <t>@ Store,
+Optima, Equip</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1167,15 +1158,20 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
@@ -1260,12 +1256,12 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1343,12 +1339,12 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1419,19 +1415,15 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
@@ -1503,15 +1495,19 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1573,8 +1569,16 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
@@ -1684,11 +1688,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -1750,7 +1750,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1813,7 +1813,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #077, WATERTOWN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1874,7 +1874,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1330 MEMORIAL DR</t>
+          <t>PIGGLY WIGGLY #077, WATERTOWN</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1925,7 +1925,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/MeUw1KTwPtx</t>
+          <t>1330 MEMORIAL DR</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1982,7 +1982,11 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/MeUw1KTwPtx</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -2050,21 +2054,9 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
@@ -2134,17 +2126,17 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -2193,12 +2185,12 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2249,12 +2241,12 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2300,12 +2292,12 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2347,12 +2339,12 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2410,12 +2402,12 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2472,9 +2464,21 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2847,7 +2851,11 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
@@ -2873,21 +2881,9 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
@@ -2926,15 +2922,19 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -2973,12 +2973,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3020,12 +3020,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3067,12 +3067,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3114,12 +3114,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3159,8 +3159,16 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>

--- a/04-27-25 to 05-03-25 Madison Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Madison Schedule.xlsx
@@ -1565,9 +1565,21 @@
       <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
@@ -2344,7 +2356,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2407,7 +2419,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2471,7 +2483,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">

--- a/04-27-25 to 05-03-25 Madison Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Madison Schedule.xlsx
@@ -1028,7 +1028,11 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Optima to Meinke Nate/Palmer car swap</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>

--- a/04-27-25 to 05-03-25 Madison Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Madison Schedule.xlsx
@@ -1028,12 +1028,12 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Optima to Meinke Nate/Palmer car swap</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1075,22 +1075,9 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1162,18 +1149,18 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Driver,
-Silver Van</t>
+          <t>@ Store,
+Optima, Equip</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1260,15 +1247,20 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
@@ -1343,12 +1335,12 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1419,12 +1411,12 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1499,19 +1491,15 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1587,15 +1575,19 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1648,8 +1640,16 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
@@ -1764,11 +1764,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
@@ -1829,7 +1825,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1890,7 +1886,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #077, WATERTOWN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1941,7 +1937,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1330 MEMORIAL DR</t>
+          <t>PIGGLY WIGGLY #077, WATERTOWN</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2000,7 +1996,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/MeUw1KTwPtx</t>
+          <t>1330 MEMORIAL DR</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2071,7 +2067,11 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/MeUw1KTwPtx</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -2140,21 +2140,9 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
@@ -2201,17 +2189,17 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2257,12 +2245,12 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2308,12 +2296,12 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2355,12 +2343,12 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2418,12 +2406,12 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2482,12 +2470,12 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2539,9 +2527,21 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>

--- a/04-27-25 to 05-03-25 Madison Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Madison Schedule.xlsx
@@ -1039,7 +1039,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4:45 am meet for Sarah, Josie &amp; Lori at WI Dells Walmart</t>
+          <t>4:45 am meet for Sarah &amp; Lori at WI Dells Walmart</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1774,12 +1774,13 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1837,15 +1838,10 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
@@ -1898,10 +1894,14 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>@ Store w/ Sarah</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
@@ -1949,12 +1949,13 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -2008,13 +2009,13 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Gray Van</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2081,15 +2082,10 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
@@ -2144,16 +2140,8 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">

--- a/04-27-25 to 05-03-25 Madison Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Madison Schedule.xlsx
@@ -1031,7 +1031,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Optima to Meinke Nate/Palmer car swap</t>
+          <t>Optima to Meineke Nate/Palmer car swap</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>

--- a/04-27-25 to 05-03-25 Madison Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Madison Schedule.xlsx
@@ -994,11 +994,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>4:45 am meet for Sarah &amp; Lori at WI Dells Walmart</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -1048,9 +1044,21 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -1101,19 +1109,15 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Driver, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
@@ -1198,12 +1202,12 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -1292,15 +1296,20 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1363,18 +1372,17 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1444,19 +1452,15 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1527,12 +1531,12 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1611,12 +1615,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1674,12 +1678,12 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1729,12 +1733,12 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1794,15 +1798,20 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1853,20 +1862,15 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -1913,15 +1917,20 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -1965,17 +1974,18 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@ Store w/ Sarah</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2035,22 +2045,9 @@
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
@@ -2104,22 +2101,9 @@
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
@@ -2157,7 +2141,11 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
@@ -2213,7 +2201,11 @@
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2264,7 +2256,11 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>FESTIVAL #2695, NEW LONDON - LIFO</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2315,7 +2311,11 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>308 N SHAWANO ST</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2366,7 +2366,11 @@
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/zqprqLmVpCzdH3s86</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
@@ -2492,9 +2496,21 @@
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
@@ -2551,8 +2567,16 @@
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Josie</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
@@ -2590,8 +2614,16 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
@@ -2625,9 +2657,21 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -2656,9 +2700,21 @@
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -2687,9 +2743,21 @@
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
@@ -2722,9 +2790,21 @@
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
@@ -2757,9 +2837,21 @@
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Kirsten</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
@@ -2792,9 +2884,21 @@
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Lena</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
@@ -2827,9 +2931,21 @@
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
@@ -2862,9 +2978,21 @@
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -2889,9 +3017,21 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
@@ -2940,9 +3080,21 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
@@ -2987,9 +3139,21 @@
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
@@ -3034,9 +3198,21 @@
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>

--- a/04-27-25 to 05-03-25 Madison Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3646,6 +3646,868 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>2:00 PM START</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>PAID GOOGLE MEET CALL</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>REGARDING IL KELLEY'S MARKET PROCEDURES AND INFO</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>PLEASE TRY TO BE 5-10 MIN EARLY TO ENSURE STARTING ON TIME</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Jake S</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/04-27-25 to 05-03-25 Madison Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y87"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3846,7 +3846,11 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>meet.google.com/etb-ssfr-vyf</t>
+        </is>
+      </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -4116,7 +4120,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -4151,7 +4155,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -4186,7 +4190,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -4221,7 +4225,7 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -4256,7 +4260,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -4291,7 +4295,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
@@ -4326,7 +4330,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
@@ -4361,7 +4365,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="W83" t="inlineStr"/>
@@ -4396,7 +4400,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W84" t="inlineStr"/>
@@ -4431,7 +4435,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W85" t="inlineStr"/>
@@ -4466,7 +4470,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="W86" t="inlineStr"/>
@@ -4501,12 +4505,47 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/04-27-25 to 05-03-25 Madison Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Madison Schedule.xlsx
@@ -2487,7 +2487,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2551,21 +2551,9 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2654,7 +2642,11 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
@@ -2695,7 +2687,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2738,7 +2730,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #80, SANDY HOLLOW MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2785,7 +2777,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>KELLEY #80, SANDY HOLLOW MOBIL, ROCKFORD</t>
+          <t>1621 SANDY HOLLOW RD</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2832,7 +2824,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1621 SANDY HOLLOW RD</t>
+          <t>https://goo.gl/maps/fDZakniRj1n</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2879,7 +2871,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fDZakniRj1n</t>
+          <t>*JEFF IS THE DM HERE</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2926,7 +2918,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>*JEFF IS THE DM HERE</t>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2971,11 +2963,7 @@
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
-        </is>
-      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
@@ -3013,9 +3001,21 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3066,19 +3066,15 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
@@ -3129,12 +3125,12 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3188,12 +3184,12 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3247,12 +3243,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3294,12 +3290,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3339,16 +3335,8 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>

--- a/04-27-25 to 05-03-25 Madison Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Madison Schedule.xlsx
@@ -2565,7 +2565,11 @@
           <t>Josie</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>@ Store w/ Lori</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -2612,7 +2616,11 @@
           <t>Lori</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>

--- a/04-27-25 to 05-03-25 Madison Schedule.xlsx
+++ b/04-27-25 to 05-03-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:Y87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3624,21 +3624,9 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -3691,7 +3679,11 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>2:00 PM START</t>
+        </is>
+      </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -3720,7 +3712,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>2:00 PM START</t>
+          <t>PAID GOOGLE MEET CALL</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -3751,7 +3743,7 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>PAID GOOGLE MEET CALL</t>
+          <t>REGARDING IL KELLEY'S MARKET PROCEDURES AND INFO</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -3782,7 +3774,7 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
         <is>
-          <t>REGARDING IL KELLEY'S MARKET PROCEDURES AND INFO</t>
+          <t>PLEASE TRY TO BE 5-10 MIN EARLY TO ENSURE STARTING ON TIME</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -3813,7 +3805,7 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr">
         <is>
-          <t>PLEASE TRY TO BE 5-10 MIN EARLY TO ENSURE STARTING ON TIME</t>
+          <t>meet.google.com/etb-ssfr-vyf</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -3842,11 +3834,7 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>meet.google.com/etb-ssfr-vyf</t>
-        </is>
-      </c>
+      <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -3872,8 +3860,16 @@
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -3901,12 +3897,12 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -3936,12 +3932,12 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -3971,12 +3967,12 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -4006,12 +4002,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -4041,12 +4037,12 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -4076,12 +4072,12 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -4111,12 +4107,12 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -4146,12 +4142,12 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W77" t="inlineStr"/>
@@ -4181,12 +4177,12 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -4216,12 +4212,12 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -4251,12 +4247,12 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -4286,12 +4282,12 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
@@ -4321,12 +4317,12 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
@@ -4356,12 +4352,12 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W83" t="inlineStr"/>
@@ -4391,12 +4387,12 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W84" t="inlineStr"/>
@@ -4426,12 +4422,12 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="W85" t="inlineStr"/>
@@ -4461,12 +4457,12 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W86" t="inlineStr"/>
@@ -4496,52 +4492,17 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>19)</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
